--- a/data/financial_statements/sofp/BIO.xlsx
+++ b/data/financial_statements/sofp/BIO.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -134,9 +251,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -189,12 +303,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -499,144 +610,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>1856000000</v>
+        <v>1855683000</v>
       </c>
       <c r="C2">
-        <v>1973000000</v>
+        <v>1973219000</v>
       </c>
       <c r="D2">
-        <v>2079000000</v>
+        <v>2079039000</v>
       </c>
       <c r="E2">
-        <v>875000000</v>
+        <v>875478000</v>
       </c>
       <c r="F2">
-        <v>1346000000</v>
+        <v>1342658000</v>
       </c>
       <c r="G2">
         <v>1166958000</v>
@@ -742,23 +853,23 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>441000000</v>
+        <v>432302000</v>
       </c>
       <c r="C3">
-        <v>457000000</v>
+        <v>450324000</v>
       </c>
       <c r="D3">
-        <v>471000000</v>
+        <v>464107000</v>
       </c>
       <c r="E3">
-        <v>426000000</v>
+        <v>423537000</v>
       </c>
       <c r="F3">
-        <v>420000000</v>
+        <v>417714000</v>
       </c>
       <c r="G3">
         <v>399307000</v>
@@ -864,23 +975,23 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>686000000</v>
+        <v>685850000</v>
       </c>
       <c r="C4">
-        <v>657000000</v>
+        <v>657130000</v>
       </c>
       <c r="D4">
-        <v>605000000</v>
+        <v>605492000</v>
       </c>
       <c r="E4">
-        <v>572000000</v>
+        <v>572239000</v>
       </c>
       <c r="F4">
-        <v>589000000</v>
+        <v>588911000</v>
       </c>
       <c r="G4">
         <v>598989000</v>
@@ -986,23 +1097,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>158000000</v>
+        <v>19122000</v>
       </c>
       <c r="C5">
-        <v>163000000</v>
+        <v>38490000</v>
       </c>
       <c r="D5">
-        <v>148000000</v>
+        <v>28126000</v>
       </c>
       <c r="E5">
-        <v>116000000</v>
+        <v>10089000</v>
       </c>
       <c r="F5">
-        <v>111000000</v>
+        <v>12413000</v>
       </c>
       <c r="G5">
         <v>13236000</v>
@@ -1093,23 +1204,23 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>3140000000</v>
+        <v>3140155000</v>
       </c>
       <c r="C6">
-        <v>3250000000</v>
+        <v>3249697000</v>
       </c>
       <c r="D6">
-        <v>3303000000</v>
+        <v>3303421000</v>
       </c>
       <c r="E6">
-        <v>1989000000</v>
+        <v>1989088000</v>
       </c>
       <c r="F6">
-        <v>2466000000</v>
+        <v>2466286000</v>
       </c>
       <c r="G6">
         <v>2289093000</v>
@@ -1215,23 +1326,23 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
-        <v>633000000</v>
+        <v>461112000</v>
       </c>
       <c r="C7">
-        <v>656000000</v>
+        <v>471321000</v>
       </c>
       <c r="D7">
-        <v>684000000</v>
+        <v>485743000</v>
       </c>
       <c r="E7">
-        <v>696000000</v>
+        <v>490952000</v>
       </c>
       <c r="F7">
-        <v>681000000</v>
+        <v>476648000</v>
       </c>
       <c r="G7">
         <v>482001000</v>
@@ -1337,23 +1448,23 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
-        <v>7459000000</v>
+        <v>7459169000</v>
       </c>
       <c r="C8">
-        <v>8088000000</v>
+        <v>8088002000</v>
       </c>
       <c r="D8">
-        <v>9690000000</v>
+        <v>9689284000</v>
       </c>
       <c r="E8">
-        <v>14387000000</v>
+        <v>14387010000</v>
       </c>
       <c r="F8">
-        <v>16231000000</v>
+        <v>16230630000</v>
       </c>
       <c r="G8">
         <v>11580390000</v>
@@ -1453,23 +1564,23 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
-        <v>725000000</v>
+        <v>724665000</v>
       </c>
       <c r="C9">
-        <v>587000000</v>
+        <v>587070000</v>
       </c>
       <c r="D9">
-        <v>593000000</v>
+        <v>592872000</v>
       </c>
       <c r="E9">
-        <v>601000000</v>
+        <v>601282000</v>
       </c>
       <c r="F9">
-        <v>469000000</v>
+        <v>468989000</v>
       </c>
       <c r="G9">
         <v>476768000</v>
@@ -1575,23 +1686,23 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>101000000</v>
+        <v>101774000</v>
       </c>
       <c r="C10">
-        <v>101000000</v>
+        <v>100886000</v>
       </c>
       <c r="D10">
-        <v>104000000</v>
+        <v>103925000</v>
       </c>
       <c r="E10">
-        <v>102000000</v>
+        <v>102669000</v>
       </c>
       <c r="F10">
-        <v>106000000</v>
+        <v>106631000</v>
       </c>
       <c r="G10">
         <v>99071000</v>
@@ -1697,8 +1808,8 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
         <v>8918307000</v>
@@ -1819,23 +1930,23 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
-        <v>12058000000</v>
+        <v>12058460000</v>
       </c>
       <c r="C12">
-        <v>12682000000</v>
+        <v>12682130000</v>
       </c>
       <c r="D12">
-        <v>14374000000</v>
+        <v>14373700000</v>
       </c>
       <c r="E12">
-        <v>17776000000</v>
+        <v>17775790000</v>
       </c>
       <c r="F12">
-        <v>19953000000</v>
+        <v>19953380000</v>
       </c>
       <c r="G12">
         <v>15117560000</v>
@@ -1941,8 +2052,8 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C13">
         <v>466000</v>
@@ -1979,23 +2090,23 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
-        <v>143000000</v>
+        <v>142746000</v>
       </c>
       <c r="C14">
-        <v>158000000</v>
+        <v>158259000</v>
       </c>
       <c r="D14">
-        <v>161000000</v>
+        <v>160651000</v>
       </c>
       <c r="E14">
-        <v>142000000</v>
+        <v>141941000</v>
       </c>
       <c r="F14">
-        <v>136000000</v>
+        <v>136398000</v>
       </c>
       <c r="G14">
         <v>133457000</v>
@@ -2083,8 +2194,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
         <v>192460000</v>
@@ -2178,23 +2289,23 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
-        <v>35000000</v>
+        <v>448000</v>
       </c>
       <c r="C16">
         <v>37000000</v>
       </c>
       <c r="D16">
-        <v>38000000</v>
+        <v>504000</v>
       </c>
       <c r="E16">
-        <v>37000000</v>
+        <v>489000</v>
       </c>
       <c r="F16">
-        <v>38000000</v>
+        <v>1739000</v>
       </c>
       <c r="G16">
         <v>1736000</v>
@@ -2273,8 +2384,8 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
         <v>29274000</v>
@@ -2395,8 +2506,8 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="E18">
         <v>50852000</v>
@@ -2427,31 +2538,31 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="AI19">
         <v>13755000</v>
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>364000000</v>
+        <v>171706000</v>
       </c>
       <c r="C20">
-        <v>393000000</v>
+        <v>212715000</v>
       </c>
       <c r="D20">
-        <v>396000000</v>
+        <v>211586000</v>
       </c>
       <c r="E20">
-        <v>491000000</v>
+        <v>178788000</v>
       </c>
       <c r="F20">
-        <v>421000000</v>
+        <v>177721000</v>
       </c>
       <c r="G20">
         <v>154942000</v>
@@ -2557,23 +2668,23 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
-        <v>571000000</v>
+        <v>570677000</v>
       </c>
       <c r="C21">
-        <v>614000000</v>
+        <v>613714000</v>
       </c>
       <c r="D21">
-        <v>648000000</v>
+        <v>648331000</v>
       </c>
       <c r="E21">
-        <v>681000000</v>
+        <v>680938000</v>
       </c>
       <c r="F21">
-        <v>650000000</v>
+        <v>649916000</v>
       </c>
       <c r="G21">
         <v>587052000</v>
@@ -2679,23 +2790,23 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>1355000000</v>
+        <v>1197272000</v>
       </c>
       <c r="C22">
-        <v>1366000000</v>
+        <v>1196943000</v>
       </c>
       <c r="D22">
-        <v>1377000000</v>
+        <v>1196739000</v>
       </c>
       <c r="E22">
-        <v>197000000</v>
+        <v>10514000</v>
       </c>
       <c r="F22">
-        <v>198000000</v>
+        <v>10645000</v>
       </c>
       <c r="G22">
         <v>10779000</v>
@@ -2801,8 +2912,8 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="C23">
         <v>1613528000</v>
@@ -2821,11 +2932,11 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
-        <v>1485000000</v>
+        <v>1484606000</v>
       </c>
       <c r="C24">
         <v>1614000000</v>
@@ -2834,10 +2945,10 @@
         <v>1996000000</v>
       </c>
       <c r="E24">
-        <v>3059000000</v>
+        <v>3059080000</v>
       </c>
       <c r="F24">
-        <v>3569000000</v>
+        <v>3569332000</v>
       </c>
       <c r="G24">
         <v>2542189000</v>
@@ -2910,23 +3021,23 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
-        <v>195000000</v>
+        <v>205091000</v>
       </c>
       <c r="C25">
-        <v>166000000</v>
+        <v>176815000</v>
       </c>
       <c r="D25">
-        <v>169000000</v>
+        <v>180089000</v>
       </c>
       <c r="E25">
-        <v>171000000</v>
+        <v>182191000</v>
       </c>
       <c r="F25">
-        <v>204000000</v>
+        <v>214291000</v>
       </c>
       <c r="G25">
         <v>218742000</v>
@@ -3032,8 +3143,8 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
         <v>3034180000</v>
@@ -3154,23 +3265,23 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
-        <v>3605000000</v>
+        <v>3604857000</v>
       </c>
       <c r="C27">
-        <v>3760000000</v>
+        <v>3759529000</v>
       </c>
       <c r="D27">
-        <v>4191000000</v>
+        <v>4190782000</v>
       </c>
       <c r="E27">
-        <v>4109000000</v>
+        <v>4108661000</v>
       </c>
       <c r="F27">
-        <v>4621000000</v>
+        <v>4621002000</v>
       </c>
       <c r="G27">
         <v>3522676000</v>
@@ -3276,8 +3387,8 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
         <v>430547000</v>
@@ -3398,23 +3509,23 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G29">
         <v>3000</v>
@@ -3520,23 +3631,23 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
-        <v>9047000000</v>
+        <v>9046530000</v>
       </c>
       <c r="C30">
-        <v>9210000000</v>
+        <v>9210457000</v>
       </c>
       <c r="D30">
-        <v>10138000000</v>
+        <v>10137630000</v>
       </c>
       <c r="E30">
-        <v>13507000000</v>
+        <v>13507240000</v>
       </c>
       <c r="F30">
-        <v>15081000000</v>
+        <v>15080850000</v>
       </c>
       <c r="G30">
         <v>11159470000</v>
@@ -3642,8 +3753,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>178261000</v>
@@ -3764,23 +3875,23 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
-        <v>8454000000</v>
+        <v>8453605000</v>
       </c>
       <c r="C32">
-        <v>8923000000</v>
+        <v>8922598000</v>
       </c>
       <c r="D32">
-        <v>10183000000</v>
+        <v>10182920000</v>
       </c>
       <c r="E32">
-        <v>13667000000</v>
+        <v>13667130000</v>
       </c>
       <c r="F32">
-        <v>15332000000</v>
+        <v>15332380000</v>
       </c>
       <c r="G32">
         <v>11594880000</v>
@@ -3886,23 +3997,23 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
-        <v>8454000000</v>
+        <v>8453605000</v>
       </c>
       <c r="C33">
-        <v>8923000000</v>
+        <v>8922597000</v>
       </c>
       <c r="D33">
-        <v>10183000000</v>
+        <v>10182920000</v>
       </c>
       <c r="E33">
-        <v>13667000000</v>
+        <v>13667130000</v>
       </c>
       <c r="F33">
-        <v>15332000000</v>
+        <v>15332380000</v>
       </c>
       <c r="G33">
         <v>11594880000</v>
@@ -4008,8 +4119,8 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
         <v>12058460000</v>
@@ -4130,8 +4241,8 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
         <v>29824000</v>
@@ -4252,8 +4363,8 @@
       </c>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B36">
         <v>7728940000</v>
@@ -4374,23 +4485,23 @@
       </c>
     </row>
     <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
+      <c r="A37" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B37">
-        <v>-466000000</v>
+        <v>-657963000</v>
       </c>
       <c r="C37">
-        <v>-570000000</v>
+        <v>-739276000</v>
       </c>
       <c r="D37">
-        <v>-664000000</v>
+        <v>-881796000</v>
       </c>
       <c r="E37">
-        <v>-641000000</v>
+        <v>-864475000</v>
       </c>
       <c r="F37">
-        <v>-1110000000</v>
+        <v>-1330274000</v>
       </c>
       <c r="G37">
         <v>-1154443000</v>
@@ -4496,23 +4607,23 @@
       </c>
     </row>
     <row r="38" spans="1:40">
-      <c r="A38" t="s">
-        <v>37</v>
+      <c r="A38" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B38">
-        <v>1390000000</v>
+        <v>1197720000</v>
       </c>
       <c r="C38">
-        <v>1403000000</v>
+        <v>1233943000</v>
       </c>
       <c r="D38">
-        <v>1415000000</v>
+        <v>1197243000</v>
       </c>
       <c r="E38">
-        <v>234000000</v>
+        <v>11003000</v>
       </c>
       <c r="F38">
-        <v>236000000</v>
+        <v>12384000</v>
       </c>
       <c r="G38">
         <v>12515000</v>
